--- a/DDAf_2024_Tableau_annexe_Tab21.xlsx
+++ b/DDAf_2024_Tableau_annexe_Tab21.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{229CB14C-65F8-4184-9594-89B213EA92C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{21DB1EFC-1D7B-4205-965B-7407CFCF8759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{449EEF86-457E-4F37-BD19-DDA06741B2EB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{754382FC-536E-449C-93D7-9518A40829BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab21" sheetId="1" r:id="rId1"/>
@@ -1473,20 +1473,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F9250B3-7F24-4F95-8C6E-1606F9E626E2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7B415FC-29C0-423C-8AA5-383870E63D62}">
   <dimension ref="A1:M207"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" style="84" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="10.453125" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="84" bestFit="1" customWidth="1"/>
+    <col min="4" max="13" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1502,7 +1502,7 @@
       <c r="L1" s="4"/>
       <c r="M1" s="5"/>
     </row>
-    <row r="2" spans="1:13" ht="95" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" ht="113.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -1543,7 +1543,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>14</v>
       </c>
@@ -1584,7 +1584,7 @@
         <v>171558.34181147799</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>16</v>
       </c>
@@ -1625,7 +1625,7 @@
         <v>36807.149450979799</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>18</v>
       </c>
@@ -1666,7 +1666,7 @@
         <v>6530.2679299593201</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>21</v>
       </c>
@@ -1707,7 +1707,7 @@
         <v>4153.7403137645097</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>23</v>
       </c>
@@ -1748,7 +1748,7 @@
         <v>8001.1880665691097</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>25</v>
       </c>
@@ -1789,7 +1789,7 @@
         <v>22905.5266284399</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>27</v>
       </c>
@@ -1830,7 +1830,7 @@
         <v>17611.5871839295</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>29</v>
       </c>
@@ -1871,7 +1871,7 @@
         <v>670542.943462856</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>31</v>
       </c>
@@ -1912,7 +1912,7 @@
         <v>53225.255806050402</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
         <v>33</v>
       </c>
@@ -1953,7 +1953,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="32" t="s">
         <v>35</v>
       </c>
@@ -1994,7 +1994,7 @@
         <v>991336.00065402698</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>37</v>
       </c>
@@ -2035,7 +2035,7 @@
         <v>3448.1380391542598</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>39</v>
       </c>
@@ -2076,7 +2076,7 @@
         <v>64190.758512144603</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>41</v>
       </c>
@@ -2117,7 +2117,7 @@
         <v>4904.7489808792998</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>43</v>
       </c>
@@ -2158,7 +2158,7 @@
         <v>15116.4280223886</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>45</v>
       </c>
@@ -2199,7 +2199,7 @@
         <v>54498.149119662499</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>47</v>
       </c>
@@ -2240,7 +2240,7 @@
         <v>101019.496491878</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
         <v>49</v>
       </c>
@@ -2281,7 +2281,7 @@
         <v>22667.367986030698</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
         <v>51</v>
       </c>
@@ -2322,7 +2322,7 @@
         <v>36144.020701916401</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="13" t="s">
         <v>53</v>
       </c>
@@ -2363,7 +2363,7 @@
         <v>770.29422712348401</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="32" t="s">
         <v>35</v>
       </c>
@@ -2404,7 +2404,7 @@
         <v>302759.40208117798</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>56</v>
       </c>
@@ -2445,7 +2445,7 @@
         <v>2659.85364401374</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
         <v>58</v>
       </c>
@@ -2486,7 +2486,7 @@
         <v>3563.6246293870199</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
         <v>60</v>
       </c>
@@ -2527,7 +2527,7 @@
         <v>1004.41244699507</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
         <v>62</v>
       </c>
@@ -2568,7 +2568,7 @@
         <v>85795.315975917198</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
         <v>64</v>
       </c>
@@ -2609,7 +2609,7 @@
         <v>105468.358023123</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
         <v>66</v>
       </c>
@@ -2650,7 +2650,7 @@
         <v>21761.8233928175</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
         <v>68</v>
       </c>
@@ -2691,7 +2691,7 @@
         <v>23074.093105362899</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
         <v>70</v>
       </c>
@@ -2732,7 +2732,7 @@
         <v>9109.6686382041098</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
         <v>72</v>
       </c>
@@ -2773,7 +2773,7 @@
         <v>4391.1314095788202</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
         <v>74</v>
       </c>
@@ -2814,7 +2814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
         <v>76</v>
       </c>
@@ -2855,7 +2855,7 @@
         <v>11154.1283630573</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
         <v>78</v>
       </c>
@@ -2896,7 +2896,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
         <v>80</v>
       </c>
@@ -2937,7 +2937,7 @@
         <v>115414.75530065699</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="13" t="s">
         <v>82</v>
       </c>
@@ -2978,7 +2978,7 @@
         <v>57136.385460758502</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="32" t="s">
         <v>35</v>
       </c>
@@ -3019,7 +3019,7 @@
         <v>440533.55038987199</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
         <v>85</v>
       </c>
@@ -3060,7 +3060,7 @@
         <v>398259.40626082098</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
         <v>87</v>
       </c>
@@ -3101,7 +3101,7 @@
         <v>255848.87154942701</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
         <v>89</v>
       </c>
@@ -3142,7 +3142,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
         <v>91</v>
       </c>
@@ -3183,7 +3183,7 @@
         <v>29393.568214313302</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
         <v>93</v>
       </c>
@@ -3224,7 +3224,7 @@
         <v>287321.946235871</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="13" t="s">
         <v>95</v>
       </c>
@@ -3265,7 +3265,7 @@
         <v>76338.066334280098</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="32" t="s">
         <v>35</v>
       </c>
@@ -3306,7 +3306,7 @@
         <v>1047161.85859471</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
         <v>98</v>
       </c>
@@ -3347,7 +3347,7 @@
         <v>19128.6779495798</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
         <v>100</v>
       </c>
@@ -3388,7 +3388,7 @@
         <v>13778.808295692101</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
         <v>102</v>
       </c>
@@ -3429,7 +3429,7 @@
         <v>5999.8187002031</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
         <v>104</v>
       </c>
@@ -3470,7 +3470,7 @@
         <v>55137.409110868997</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="13" t="s">
         <v>106</v>
       </c>
@@ -3511,7 +3511,7 @@
         <v>2203.5876757384699</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="s">
         <v>108</v>
       </c>
@@ -3552,7 +3552,7 @@
         <v>148668.856175327</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
         <v>110</v>
       </c>
@@ -3593,7 +3593,7 @@
         <v>16496.4788226155</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
         <v>112</v>
       </c>
@@ -3634,7 +3634,7 @@
         <v>435.57165952666202</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
         <v>114</v>
       </c>
@@ -3675,7 +3675,7 @@
         <v>9201.2977600097693</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
         <v>116</v>
       </c>
@@ -3716,7 +3716,7 @@
         <v>17977.290378012</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="13" t="s">
         <v>118</v>
       </c>
@@ -3757,7 +3757,7 @@
         <v>25622.687039581499</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="13" t="s">
         <v>120</v>
       </c>
@@ -3798,7 +3798,7 @@
         <v>1130224.13463479</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="13" t="s">
         <v>122</v>
       </c>
@@ -3839,7 +3839,7 @@
         <v>38526.859529363297</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="s">
         <v>124</v>
       </c>
@@ -3880,7 +3880,7 @@
         <v>5131.1714018453904</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="13" t="s">
         <v>126</v>
       </c>
@@ -3921,7 +3921,7 @@
         <v>8239.7854030819508</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="32"/>
       <c r="B61" s="33" t="s">
         <v>128</v>
@@ -3960,7 +3960,7 @@
         <v>1496772.4345362301</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="52"/>
       <c r="B62" s="53" t="s">
         <v>129</v>
@@ -3999,7 +3999,7 @@
         <v>4278563.2462560199</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="52"/>
       <c r="B63" s="57" t="s">
         <v>130</v>
@@ -4038,7 +4038,7 @@
         <v>157994159.28895</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="61"/>
       <c r="B64" s="62" t="s">
         <v>131</v>
@@ -4077,7 +4077,7 @@
         <v>9690581.1511896309</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="61"/>
       <c r="B65" s="57" t="s">
         <v>132</v>
@@ -4116,7 +4116,7 @@
         <v>37278272.685259297</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="61"/>
       <c r="B66" s="69" t="s">
         <v>133</v>
@@ -4155,7 +4155,7 @@
         <v>162272722.53520599</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="61"/>
       <c r="B67" s="57" t="s">
         <v>134</v>
@@ -4194,7 +4194,7 @@
         <v>818375.95094347699</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="61"/>
       <c r="B68" s="57" t="s">
         <v>135</v>
@@ -4233,7 +4233,7 @@
         <v>2157722.8381335698</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="61"/>
       <c r="B69" s="57" t="s">
         <v>136</v>
@@ -4272,7 +4272,7 @@
         <v>402750.93031683197</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="61"/>
       <c r="B70" s="57" t="s">
         <v>137</v>
@@ -4311,7 +4311,7 @@
         <v>483427.41253086098</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="61"/>
       <c r="B71" s="57" t="s">
         <v>138</v>
@@ -4350,7 +4350,7 @@
         <v>1496772.4345362301</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="61"/>
       <c r="B72" s="57" t="s">
         <v>139</v>
@@ -4389,7 +4389,7 @@
         <v>263117.812452243</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="61"/>
       <c r="B73" s="57" t="s">
         <v>140</v>
@@ -4428,7 +4428,7 @@
         <v>1259657.15399833</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="61"/>
       <c r="B74" s="57" t="s">
         <v>140</v>
@@ -4467,7 +4467,7 @@
         <v>791312.98704528494</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="61"/>
       <c r="B75" s="57" t="s">
         <v>141</v>
@@ -4506,7 +4506,7 @@
         <v>201669.55302677199</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="61"/>
       <c r="B76" s="73" t="s">
         <v>142</v>
@@ -4545,7 +4545,7 @@
         <v>6220602.2148599699</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="61"/>
       <c r="B77" s="57" t="s">
         <v>143</v>
@@ -4584,7 +4584,7 @@
         <v>5986825.7061842801</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="61"/>
       <c r="B78" s="57" t="s">
         <v>143</v>
@@ -4623,7 +4623,7 @@
         <v>33089652.523184501</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="61"/>
       <c r="B79" s="69" t="s">
         <v>144</v>
@@ -4662,7 +4662,7 @@
         <v>105934460.560957</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="61"/>
       <c r="B80" s="57" t="s">
         <v>145</v>
@@ -4701,7 +4701,7 @@
         <v>744791.22917987104</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="61"/>
       <c r="B81" s="57" t="s">
         <v>146</v>
@@ -4740,7 +4740,7 @@
         <v>7481825.0781766102</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="61"/>
       <c r="B82" s="57" t="s">
         <v>147</v>
@@ -4779,7 +4779,7 @@
         <v>3533772.01707615</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="61"/>
       <c r="B83" s="57" t="s">
         <v>148</v>
@@ -4818,7 +4818,7 @@
         <v>150512334.210774</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="61"/>
       <c r="B84" s="73" t="s">
         <v>149</v>
@@ -4857,7 +4857,7 @@
         <v>423947.46012054698</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="61"/>
       <c r="B85" s="77" t="s">
         <v>150</v>
@@ -4896,7 +4896,7 @@
         <v>34657.823700646702</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="61"/>
       <c r="B86" s="57" t="s">
         <v>151</v>
@@ -4935,7 +4935,7 @@
         <v>3043377.4928348199</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="61"/>
       <c r="B87" s="57" t="s">
         <v>152</v>
@@ -4974,7 +4974,7 @@
         <v>8694915.8254788406</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="61"/>
       <c r="B88" s="57" t="s">
         <v>153</v>
@@ -5013,7 +5013,7 @@
         <v>806847.16189107602</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="61"/>
       <c r="B89" s="57" t="s">
         <v>154</v>
@@ -5052,7 +5052,7 @@
         <v>44898566.562660903</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="61"/>
       <c r="B90" s="69" t="s">
         <v>155</v>
@@ -5091,7 +5091,7 @@
         <v>104370410.208519</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="61"/>
       <c r="B91" s="57" t="s">
         <v>156</v>
@@ -5130,7 +5130,7 @@
         <v>878838.91036889295</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="61"/>
       <c r="B92" s="57" t="s">
         <v>157</v>
@@ -5169,7 +5169,7 @@
         <v>772694.86327575601</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="61"/>
       <c r="B93" s="57" t="s">
         <v>158</v>
@@ -5208,7 +5208,7 @@
         <v>37330.762745808701</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="61"/>
       <c r="B94" s="57" t="s">
         <v>159</v>
@@ -5247,7 +5247,7 @@
         <v>937855.41350620601</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="61"/>
       <c r="B95" s="57" t="s">
         <v>160</v>
@@ -5286,7 +5286,7 @@
         <v>352761.20076096797</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="61"/>
       <c r="B96" s="57" t="s">
         <v>161</v>
@@ -5325,7 +5325,7 @@
         <v>738460.18720630405</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="61"/>
       <c r="B97" s="73" t="s">
         <v>162</v>
@@ -5364,7 +5364,7 @@
         <v>2047334.4757741599</v>
       </c>
     </row>
-    <row r="98" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="61"/>
       <c r="B98" s="69" t="s">
         <v>163</v>
@@ -5403,7 +5403,7 @@
         <v>1790997.05927948</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="78"/>
       <c r="B99" s="79"/>
       <c r="C99" s="80"/>
@@ -5418,7 +5418,7 @@
       <c r="L99" s="80"/>
       <c r="M99" s="80"/>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>164</v>
       </c>
@@ -5434,7 +5434,7 @@
       <c r="L100" s="81"/>
       <c r="M100" s="81"/>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>165</v>
       </c>
@@ -5450,7 +5450,7 @@
       <c r="L101" s="81"/>
       <c r="M101" s="81"/>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>166</v>
       </c>
@@ -5466,7 +5466,7 @@
       <c r="L102" s="81"/>
       <c r="M102" s="81"/>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>167</v>
       </c>
@@ -5482,7 +5482,7 @@
       <c r="L103" s="81"/>
       <c r="M103" s="81"/>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>168</v>
       </c>
@@ -5498,7 +5498,7 @@
       <c r="L104" s="81"/>
       <c r="M104" s="81"/>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>169</v>
       </c>
@@ -5514,7 +5514,7 @@
       <c r="L105" s="81"/>
       <c r="M105" s="81"/>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C106" s="82"/>
       <c r="D106" s="82"/>
       <c r="E106" s="82"/>
@@ -5527,7 +5527,7 @@
       <c r="L106" s="82"/>
       <c r="M106" s="82"/>
     </row>
-    <row r="107" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B107" s="83" t="s">
         <v>170</v>
       </c>
@@ -5543,7 +5543,7 @@
       <c r="L107" s="82"/>
       <c r="M107" s="82"/>
     </row>
-    <row r="108" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B108" s="83"/>
       <c r="C108" s="82"/>
       <c r="D108" s="82"/>
@@ -5557,7 +5557,7 @@
       <c r="L108" s="82"/>
       <c r="M108" s="82"/>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B109" s="2" t="s">
         <v>172</v>
       </c>
@@ -5573,7 +5573,7 @@
       <c r="L109" s="82"/>
       <c r="M109" s="82"/>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B110" s="2" t="s">
         <v>173</v>
       </c>
@@ -5589,7 +5589,7 @@
       <c r="L110" s="82"/>
       <c r="M110" s="82"/>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B111" s="85" t="s">
         <v>174</v>
       </c>
@@ -5605,7 +5605,7 @@
       <c r="L111" s="82"/>
       <c r="M111" s="82"/>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B112" s="2" t="s">
         <v>171</v>
       </c>
@@ -5621,7 +5621,7 @@
       <c r="L112" s="82"/>
       <c r="M112" s="82"/>
     </row>
-    <row r="113" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B113" s="2"/>
       <c r="C113" s="81"/>
       <c r="D113" s="81"/>
@@ -5635,7 +5635,7 @@
       <c r="L113" s="81"/>
       <c r="M113" s="81"/>
     </row>
-    <row r="114" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B114" s="2"/>
       <c r="C114" s="81"/>
       <c r="D114" s="81"/>
@@ -5649,7 +5649,7 @@
       <c r="L114" s="81"/>
       <c r="M114" s="81"/>
     </row>
-    <row r="115" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C115" s="82"/>
       <c r="D115" s="82"/>
       <c r="E115" s="82"/>
@@ -5662,7 +5662,7 @@
       <c r="L115" s="82"/>
       <c r="M115" s="82"/>
     </row>
-    <row r="116" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C116" s="82"/>
       <c r="D116" s="82"/>
       <c r="E116" s="82"/>
@@ -5675,7 +5675,7 @@
       <c r="L116" s="82"/>
       <c r="M116" s="82"/>
     </row>
-    <row r="117" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C117" s="82"/>
       <c r="D117" s="82"/>
       <c r="E117" s="82"/>
@@ -5688,7 +5688,7 @@
       <c r="L117" s="82"/>
       <c r="M117" s="82"/>
     </row>
-    <row r="118" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C118" s="82"/>
       <c r="D118" s="82"/>
       <c r="E118" s="82"/>
@@ -5701,7 +5701,7 @@
       <c r="L118" s="82"/>
       <c r="M118" s="82"/>
     </row>
-    <row r="119" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C119" s="82"/>
       <c r="D119" s="82"/>
       <c r="E119" s="82"/>
@@ -5714,7 +5714,7 @@
       <c r="L119" s="82"/>
       <c r="M119" s="82"/>
     </row>
-    <row r="120" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C120" s="82"/>
       <c r="D120" s="82"/>
       <c r="E120" s="82"/>
@@ -5727,7 +5727,7 @@
       <c r="L120" s="82"/>
       <c r="M120" s="82"/>
     </row>
-    <row r="121" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C121" s="82"/>
       <c r="D121" s="82"/>
       <c r="E121" s="82"/>
@@ -5740,7 +5740,7 @@
       <c r="L121" s="82"/>
       <c r="M121" s="82"/>
     </row>
-    <row r="122" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="122" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C122" s="82"/>
       <c r="D122" s="82"/>
       <c r="E122" s="82"/>
@@ -5753,7 +5753,7 @@
       <c r="L122" s="82"/>
       <c r="M122" s="82"/>
     </row>
-    <row r="123" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="123" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C123" s="82"/>
       <c r="D123" s="82"/>
       <c r="E123" s="82"/>
@@ -5766,7 +5766,7 @@
       <c r="L123" s="82"/>
       <c r="M123" s="82"/>
     </row>
-    <row r="124" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="124" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C124" s="82"/>
       <c r="D124" s="82"/>
       <c r="E124" s="82"/>
@@ -5779,7 +5779,7 @@
       <c r="L124" s="82"/>
       <c r="M124" s="82"/>
     </row>
-    <row r="125" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="125" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C125" s="82"/>
       <c r="D125" s="82"/>
       <c r="E125" s="82"/>
@@ -5792,7 +5792,7 @@
       <c r="L125" s="82"/>
       <c r="M125" s="82"/>
     </row>
-    <row r="126" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="126" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C126" s="82"/>
       <c r="D126" s="82"/>
       <c r="E126" s="82"/>
@@ -5805,7 +5805,7 @@
       <c r="L126" s="82"/>
       <c r="M126" s="82"/>
     </row>
-    <row r="127" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="127" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C127" s="82"/>
       <c r="D127" s="82"/>
       <c r="E127" s="82"/>
@@ -5818,7 +5818,7 @@
       <c r="L127" s="82"/>
       <c r="M127" s="82"/>
     </row>
-    <row r="128" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="128" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C128" s="82"/>
       <c r="D128" s="82"/>
       <c r="E128" s="82"/>
@@ -5831,7 +5831,7 @@
       <c r="L128" s="82"/>
       <c r="M128" s="82"/>
     </row>
-    <row r="129" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="129" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C129" s="82"/>
       <c r="D129" s="82"/>
       <c r="E129" s="82"/>
@@ -5844,7 +5844,7 @@
       <c r="L129" s="82"/>
       <c r="M129" s="82"/>
     </row>
-    <row r="130" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="130" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C130" s="82"/>
       <c r="D130" s="82"/>
       <c r="E130" s="82"/>
@@ -5857,7 +5857,7 @@
       <c r="L130" s="82"/>
       <c r="M130" s="82"/>
     </row>
-    <row r="131" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="131" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C131" s="82"/>
       <c r="D131" s="82"/>
       <c r="E131" s="82"/>
@@ -5870,7 +5870,7 @@
       <c r="L131" s="82"/>
       <c r="M131" s="82"/>
     </row>
-    <row r="132" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="132" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C132" s="82"/>
       <c r="D132" s="82"/>
       <c r="E132" s="82"/>
@@ -5883,7 +5883,7 @@
       <c r="L132" s="82"/>
       <c r="M132" s="82"/>
     </row>
-    <row r="133" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="133" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C133" s="82"/>
       <c r="D133" s="82"/>
       <c r="E133" s="82"/>
@@ -5896,7 +5896,7 @@
       <c r="L133" s="82"/>
       <c r="M133" s="82"/>
     </row>
-    <row r="134" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="134" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C134" s="82"/>
       <c r="D134" s="82"/>
       <c r="E134" s="82"/>
@@ -5909,7 +5909,7 @@
       <c r="L134" s="82"/>
       <c r="M134" s="82"/>
     </row>
-    <row r="135" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="135" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C135" s="82"/>
       <c r="D135" s="82"/>
       <c r="E135" s="82"/>
@@ -5922,7 +5922,7 @@
       <c r="L135" s="82"/>
       <c r="M135" s="82"/>
     </row>
-    <row r="136" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="136" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C136" s="82"/>
       <c r="D136" s="82"/>
       <c r="E136" s="82"/>
@@ -5935,7 +5935,7 @@
       <c r="L136" s="82"/>
       <c r="M136" s="82"/>
     </row>
-    <row r="137" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="137" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C137" s="82"/>
       <c r="D137" s="82"/>
       <c r="E137" s="82"/>
@@ -5948,7 +5948,7 @@
       <c r="L137" s="82"/>
       <c r="M137" s="82"/>
     </row>
-    <row r="138" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="138" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C138" s="82"/>
       <c r="D138" s="82"/>
       <c r="E138" s="82"/>
@@ -5961,7 +5961,7 @@
       <c r="L138" s="82"/>
       <c r="M138" s="82"/>
     </row>
-    <row r="139" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="139" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C139" s="82"/>
       <c r="D139" s="82"/>
       <c r="E139" s="82"/>
@@ -5974,7 +5974,7 @@
       <c r="L139" s="82"/>
       <c r="M139" s="82"/>
     </row>
-    <row r="140" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="140" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C140" s="82"/>
       <c r="D140" s="82"/>
       <c r="E140" s="82"/>
@@ -5987,7 +5987,7 @@
       <c r="L140" s="82"/>
       <c r="M140" s="82"/>
     </row>
-    <row r="141" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="141" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C141" s="82"/>
       <c r="D141" s="82"/>
       <c r="E141" s="82"/>
@@ -6000,7 +6000,7 @@
       <c r="L141" s="82"/>
       <c r="M141" s="82"/>
     </row>
-    <row r="142" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="142" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C142" s="82"/>
       <c r="D142" s="82"/>
       <c r="E142" s="82"/>
@@ -6013,7 +6013,7 @@
       <c r="L142" s="82"/>
       <c r="M142" s="82"/>
     </row>
-    <row r="143" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="143" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C143" s="82"/>
       <c r="D143" s="82"/>
       <c r="E143" s="82"/>
@@ -6026,7 +6026,7 @@
       <c r="L143" s="82"/>
       <c r="M143" s="82"/>
     </row>
-    <row r="144" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="144" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C144" s="82"/>
       <c r="D144" s="82"/>
       <c r="E144" s="82"/>
@@ -6039,7 +6039,7 @@
       <c r="L144" s="82"/>
       <c r="M144" s="82"/>
     </row>
-    <row r="145" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="145" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C145" s="82"/>
       <c r="D145" s="82"/>
       <c r="E145" s="82"/>
@@ -6052,7 +6052,7 @@
       <c r="L145" s="82"/>
       <c r="M145" s="82"/>
     </row>
-    <row r="146" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="146" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C146" s="82"/>
       <c r="D146" s="82"/>
       <c r="E146" s="82"/>
@@ -6065,7 +6065,7 @@
       <c r="L146" s="82"/>
       <c r="M146" s="82"/>
     </row>
-    <row r="147" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="147" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C147" s="82"/>
       <c r="D147" s="82"/>
       <c r="E147" s="82"/>
@@ -6078,7 +6078,7 @@
       <c r="L147" s="82"/>
       <c r="M147" s="82"/>
     </row>
-    <row r="148" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="148" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C148" s="82"/>
       <c r="D148" s="82"/>
       <c r="E148" s="82"/>
@@ -6091,7 +6091,7 @@
       <c r="L148" s="82"/>
       <c r="M148" s="82"/>
     </row>
-    <row r="149" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="149" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C149" s="82"/>
       <c r="D149" s="82"/>
       <c r="E149" s="82"/>
@@ -6104,7 +6104,7 @@
       <c r="L149" s="82"/>
       <c r="M149" s="82"/>
     </row>
-    <row r="150" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="150" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C150" s="82"/>
       <c r="D150" s="82"/>
       <c r="E150" s="82"/>
@@ -6117,7 +6117,7 @@
       <c r="L150" s="82"/>
       <c r="M150" s="82"/>
     </row>
-    <row r="151" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="151" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C151" s="82"/>
       <c r="D151" s="82"/>
       <c r="E151" s="82"/>
@@ -6130,7 +6130,7 @@
       <c r="L151" s="82"/>
       <c r="M151" s="82"/>
     </row>
-    <row r="152" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="152" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C152" s="82"/>
       <c r="D152" s="82"/>
       <c r="E152" s="82"/>
@@ -6143,7 +6143,7 @@
       <c r="L152" s="82"/>
       <c r="M152" s="82"/>
     </row>
-    <row r="153" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="153" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C153" s="82"/>
       <c r="D153" s="82"/>
       <c r="E153" s="82"/>
@@ -6156,7 +6156,7 @@
       <c r="L153" s="82"/>
       <c r="M153" s="82"/>
     </row>
-    <row r="154" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="154" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C154" s="82"/>
       <c r="D154" s="82"/>
       <c r="E154" s="82"/>
@@ -6169,7 +6169,7 @@
       <c r="L154" s="82"/>
       <c r="M154" s="82"/>
     </row>
-    <row r="155" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="155" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C155" s="82"/>
       <c r="D155" s="82"/>
       <c r="E155" s="82"/>
@@ -6182,7 +6182,7 @@
       <c r="L155" s="82"/>
       <c r="M155" s="82"/>
     </row>
-    <row r="156" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="156" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C156" s="82"/>
       <c r="D156" s="82"/>
       <c r="E156" s="82"/>
@@ -6195,7 +6195,7 @@
       <c r="L156" s="82"/>
       <c r="M156" s="82"/>
     </row>
-    <row r="157" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="157" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C157" s="82"/>
       <c r="D157" s="82"/>
       <c r="E157" s="82"/>
@@ -6208,7 +6208,7 @@
       <c r="L157" s="82"/>
       <c r="M157" s="82"/>
     </row>
-    <row r="158" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="158" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C158" s="82"/>
       <c r="D158" s="82"/>
       <c r="E158" s="82"/>
@@ -6221,7 +6221,7 @@
       <c r="L158" s="82"/>
       <c r="M158" s="82"/>
     </row>
-    <row r="159" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="159" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C159" s="82"/>
       <c r="D159" s="82"/>
       <c r="E159" s="82"/>
@@ -6234,7 +6234,7 @@
       <c r="L159" s="82"/>
       <c r="M159" s="82"/>
     </row>
-    <row r="160" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="160" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C160" s="82"/>
       <c r="D160" s="82"/>
       <c r="E160" s="82"/>
@@ -6247,7 +6247,7 @@
       <c r="L160" s="82"/>
       <c r="M160" s="82"/>
     </row>
-    <row r="161" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="161" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C161" s="82"/>
       <c r="D161" s="82"/>
       <c r="E161" s="82"/>
@@ -6260,7 +6260,7 @@
       <c r="L161" s="82"/>
       <c r="M161" s="82"/>
     </row>
-    <row r="162" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="162" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C162" s="82"/>
       <c r="D162" s="82"/>
       <c r="E162" s="82"/>
@@ -6273,7 +6273,7 @@
       <c r="L162" s="82"/>
       <c r="M162" s="82"/>
     </row>
-    <row r="163" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="163" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C163" s="82"/>
       <c r="D163" s="82"/>
       <c r="E163" s="82"/>
@@ -6286,7 +6286,7 @@
       <c r="L163" s="82"/>
       <c r="M163" s="82"/>
     </row>
-    <row r="164" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="164" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C164" s="82"/>
       <c r="D164" s="82"/>
       <c r="E164" s="82"/>
@@ -6299,7 +6299,7 @@
       <c r="L164" s="82"/>
       <c r="M164" s="82"/>
     </row>
-    <row r="165" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="165" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C165" s="82"/>
       <c r="D165" s="82"/>
       <c r="E165" s="82"/>
@@ -6312,7 +6312,7 @@
       <c r="L165" s="82"/>
       <c r="M165" s="82"/>
     </row>
-    <row r="166" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="166" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C166" s="82"/>
       <c r="D166" s="82"/>
       <c r="E166" s="82"/>
@@ -6325,7 +6325,7 @@
       <c r="L166" s="82"/>
       <c r="M166" s="82"/>
     </row>
-    <row r="167" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="167" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C167" s="82"/>
       <c r="D167" s="82"/>
       <c r="E167" s="82"/>
@@ -6338,7 +6338,7 @@
       <c r="L167" s="82"/>
       <c r="M167" s="82"/>
     </row>
-    <row r="168" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="168" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C168" s="82"/>
       <c r="D168" s="82"/>
       <c r="E168" s="82"/>
@@ -6351,7 +6351,7 @@
       <c r="L168" s="82"/>
       <c r="M168" s="82"/>
     </row>
-    <row r="169" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="169" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C169" s="82"/>
       <c r="D169" s="82"/>
       <c r="E169" s="82"/>
@@ -6364,7 +6364,7 @@
       <c r="L169" s="82"/>
       <c r="M169" s="82"/>
     </row>
-    <row r="170" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="170" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C170" s="82"/>
       <c r="D170" s="82"/>
       <c r="E170" s="82"/>
@@ -6377,7 +6377,7 @@
       <c r="L170" s="82"/>
       <c r="M170" s="82"/>
     </row>
-    <row r="171" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="171" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C171" s="82"/>
       <c r="D171" s="82"/>
       <c r="E171" s="82"/>
@@ -6390,7 +6390,7 @@
       <c r="L171" s="82"/>
       <c r="M171" s="82"/>
     </row>
-    <row r="172" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="172" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C172" s="82"/>
       <c r="D172" s="82"/>
       <c r="E172" s="82"/>
@@ -6403,7 +6403,7 @@
       <c r="L172" s="82"/>
       <c r="M172" s="82"/>
     </row>
-    <row r="173" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="173" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C173" s="82"/>
       <c r="D173" s="82"/>
       <c r="E173" s="82"/>
@@ -6416,7 +6416,7 @@
       <c r="L173" s="82"/>
       <c r="M173" s="82"/>
     </row>
-    <row r="174" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="174" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C174" s="82"/>
       <c r="D174" s="82"/>
       <c r="E174" s="82"/>
@@ -6429,7 +6429,7 @@
       <c r="L174" s="82"/>
       <c r="M174" s="82"/>
     </row>
-    <row r="175" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="175" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C175" s="82"/>
       <c r="D175" s="82"/>
       <c r="E175" s="82"/>
@@ -6442,7 +6442,7 @@
       <c r="L175" s="82"/>
       <c r="M175" s="82"/>
     </row>
-    <row r="176" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="176" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C176" s="82"/>
       <c r="D176" s="82"/>
       <c r="E176" s="82"/>
@@ -6455,7 +6455,7 @@
       <c r="L176" s="82"/>
       <c r="M176" s="82"/>
     </row>
-    <row r="177" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="177" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C177" s="82"/>
       <c r="D177" s="82"/>
       <c r="E177" s="82"/>
@@ -6468,7 +6468,7 @@
       <c r="L177" s="82"/>
       <c r="M177" s="82"/>
     </row>
-    <row r="178" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="178" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C178" s="82"/>
       <c r="D178" s="82"/>
       <c r="E178" s="82"/>
@@ -6481,7 +6481,7 @@
       <c r="L178" s="82"/>
       <c r="M178" s="82"/>
     </row>
-    <row r="179" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="179" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C179" s="82"/>
       <c r="D179" s="82"/>
       <c r="E179" s="82"/>
@@ -6494,7 +6494,7 @@
       <c r="L179" s="82"/>
       <c r="M179" s="82"/>
     </row>
-    <row r="180" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="180" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C180" s="82"/>
       <c r="D180" s="82"/>
       <c r="E180" s="82"/>
@@ -6507,7 +6507,7 @@
       <c r="L180" s="82"/>
       <c r="M180" s="82"/>
     </row>
-    <row r="181" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="181" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C181" s="82"/>
       <c r="D181" s="82"/>
       <c r="E181" s="82"/>
@@ -6520,7 +6520,7 @@
       <c r="L181" s="82"/>
       <c r="M181" s="82"/>
     </row>
-    <row r="182" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="182" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C182" s="82"/>
       <c r="D182" s="82"/>
       <c r="E182" s="82"/>
@@ -6533,7 +6533,7 @@
       <c r="L182" s="82"/>
       <c r="M182" s="82"/>
     </row>
-    <row r="183" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="183" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C183" s="82"/>
       <c r="D183" s="82"/>
       <c r="E183" s="82"/>
@@ -6546,7 +6546,7 @@
       <c r="L183" s="82"/>
       <c r="M183" s="82"/>
     </row>
-    <row r="184" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="184" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C184" s="82"/>
       <c r="D184" s="82"/>
       <c r="E184" s="82"/>
@@ -6559,7 +6559,7 @@
       <c r="L184" s="82"/>
       <c r="M184" s="82"/>
     </row>
-    <row r="185" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="185" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C185" s="82"/>
       <c r="D185" s="82"/>
       <c r="E185" s="82"/>
@@ -6572,7 +6572,7 @@
       <c r="L185" s="82"/>
       <c r="M185" s="82"/>
     </row>
-    <row r="186" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="186" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C186" s="82"/>
       <c r="D186" s="82"/>
       <c r="E186" s="82"/>
@@ -6585,7 +6585,7 @@
       <c r="L186" s="82"/>
       <c r="M186" s="82"/>
     </row>
-    <row r="187" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="187" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C187" s="82"/>
       <c r="D187" s="82"/>
       <c r="E187" s="82"/>
@@ -6598,7 +6598,7 @@
       <c r="L187" s="82"/>
       <c r="M187" s="82"/>
     </row>
-    <row r="188" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="188" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C188" s="82"/>
       <c r="D188" s="82"/>
       <c r="E188" s="82"/>
@@ -6611,7 +6611,7 @@
       <c r="L188" s="82"/>
       <c r="M188" s="82"/>
     </row>
-    <row r="189" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="189" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C189" s="82"/>
       <c r="D189" s="82"/>
       <c r="E189" s="82"/>
@@ -6624,7 +6624,7 @@
       <c r="L189" s="82"/>
       <c r="M189" s="82"/>
     </row>
-    <row r="190" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="190" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C190" s="82"/>
       <c r="D190" s="82"/>
       <c r="E190" s="82"/>
@@ -6637,7 +6637,7 @@
       <c r="L190" s="82"/>
       <c r="M190" s="82"/>
     </row>
-    <row r="191" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="191" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C191" s="82"/>
       <c r="D191" s="82"/>
       <c r="E191" s="82"/>
@@ -6650,7 +6650,7 @@
       <c r="L191" s="82"/>
       <c r="M191" s="82"/>
     </row>
-    <row r="192" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="192" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C192" s="82"/>
       <c r="D192" s="82"/>
       <c r="E192" s="82"/>
@@ -6663,7 +6663,7 @@
       <c r="L192" s="82"/>
       <c r="M192" s="82"/>
     </row>
-    <row r="193" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="193" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C193" s="82"/>
       <c r="D193" s="82"/>
       <c r="E193" s="82"/>
@@ -6676,7 +6676,7 @@
       <c r="L193" s="82"/>
       <c r="M193" s="82"/>
     </row>
-    <row r="194" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="194" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C194" s="82"/>
       <c r="D194" s="82"/>
       <c r="E194" s="82"/>
@@ -6689,7 +6689,7 @@
       <c r="L194" s="82"/>
       <c r="M194" s="82"/>
     </row>
-    <row r="195" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="195" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C195" s="82"/>
       <c r="D195" s="82"/>
       <c r="E195" s="82"/>
@@ -6702,7 +6702,7 @@
       <c r="L195" s="82"/>
       <c r="M195" s="82"/>
     </row>
-    <row r="196" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="196" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C196" s="82"/>
       <c r="D196" s="82"/>
       <c r="E196" s="82"/>
@@ -6715,7 +6715,7 @@
       <c r="L196" s="82"/>
       <c r="M196" s="82"/>
     </row>
-    <row r="197" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="197" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C197" s="82"/>
       <c r="D197" s="82"/>
       <c r="E197" s="82"/>
@@ -6728,7 +6728,7 @@
       <c r="L197" s="82"/>
       <c r="M197" s="82"/>
     </row>
-    <row r="198" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="198" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C198" s="82"/>
       <c r="D198" s="82"/>
       <c r="E198" s="82"/>
@@ -6741,7 +6741,7 @@
       <c r="L198" s="82"/>
       <c r="M198" s="82"/>
     </row>
-    <row r="199" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="199" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C199" s="82"/>
       <c r="D199" s="82"/>
       <c r="E199" s="82"/>
@@ -6754,7 +6754,7 @@
       <c r="L199" s="82"/>
       <c r="M199" s="82"/>
     </row>
-    <row r="200" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="200" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C200" s="82"/>
       <c r="D200" s="82"/>
       <c r="E200" s="82"/>
@@ -6767,7 +6767,7 @@
       <c r="L200" s="82"/>
       <c r="M200" s="82"/>
     </row>
-    <row r="201" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="201" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C201" s="82"/>
       <c r="D201" s="82"/>
       <c r="E201" s="82"/>
@@ -6780,7 +6780,7 @@
       <c r="L201" s="82"/>
       <c r="M201" s="82"/>
     </row>
-    <row r="202" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="202" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C202" s="82"/>
       <c r="D202" s="82"/>
       <c r="E202" s="82"/>
@@ -6793,7 +6793,7 @@
       <c r="L202" s="82"/>
       <c r="M202" s="82"/>
     </row>
-    <row r="203" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="203" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C203" s="82"/>
       <c r="D203" s="82"/>
       <c r="E203" s="82"/>
@@ -6806,7 +6806,7 @@
       <c r="L203" s="82"/>
       <c r="M203" s="82"/>
     </row>
-    <row r="204" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="204" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C204" s="82"/>
       <c r="D204" s="82"/>
       <c r="E204" s="82"/>
@@ -6819,7 +6819,7 @@
       <c r="L204" s="82"/>
       <c r="M204" s="82"/>
     </row>
-    <row r="205" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="205" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C205" s="82"/>
       <c r="D205" s="82"/>
       <c r="E205" s="82"/>
@@ -6832,7 +6832,7 @@
       <c r="L205" s="82"/>
       <c r="M205" s="82"/>
     </row>
-    <row r="206" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="206" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C206" s="82"/>
       <c r="D206" s="82"/>
       <c r="E206" s="82"/>
@@ -6845,7 +6845,7 @@
       <c r="L206" s="82"/>
       <c r="M206" s="82"/>
     </row>
-    <row r="207" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="207" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C207" s="82"/>
       <c r="D207" s="82"/>
       <c r="E207" s="82"/>
@@ -6860,11 +6860,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{85B6910E-2AEF-452C-A0B1-5FB40E900EED}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{1E23D8E4-ECFC-4134-B5BF-848820F34ABF}"/>
-    <hyperlink ref="B112" r:id="rId3" xr:uid="{23D01926-7966-41BE-9206-AFC17EDAFE7E}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{754C27A9-9600-45A6-A7A8-CA175D48362A}"/>
-    <hyperlink ref="B111" r:id="rId5" xr:uid="{C9C4AB8F-3C7F-4AA0-869F-C22B325C97F4}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{9343737D-CC45-4A28-BF37-B84E488E4D38}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{724A01B3-57E2-473F-9419-8A19AEEE28F2}"/>
+    <hyperlink ref="B112" r:id="rId3" xr:uid="{D31BD827-7B9C-49F1-AC83-7D08688363C3}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{1105A3E9-9F3F-4250-935B-CA4B4626CB6F}"/>
+    <hyperlink ref="B111" r:id="rId5" xr:uid="{B75858C3-6869-475B-A004-B423B72E60CF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="83" orientation="portrait" r:id="rId6"/>

--- a/DDAf_2024_Tableau_annexe_Tab21.xlsx
+++ b/DDAf_2024_Tableau_annexe_Tab21.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{21DB1EFC-1D7B-4205-965B-7407CFCF8759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{498BEEEA-C916-4A5B-8665-47FFD27430D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{754382FC-536E-449C-93D7-9518A40829BB}"/>
+    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{33A389CB-5DB2-4166-81B9-E429A1E9BF5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab21" sheetId="1" r:id="rId1"/>
@@ -1156,8 +1156,8 @@
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1473,7 +1473,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7B415FC-29C0-423C-8AA5-383870E63D62}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B8B8755-DB3F-4B23-B6F2-2B64670F5B9C}">
   <dimension ref="A1:M207"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
@@ -1482,7 +1482,7 @@
   <cols>
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" style="84" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="85" bestFit="1" customWidth="1"/>
     <col min="4" max="13" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5590,7 +5590,7 @@
       <c r="M110" s="82"/>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B111" s="85" t="s">
+      <c r="B111" s="84" t="s">
         <v>174</v>
       </c>
       <c r="C111" s="82"/>
@@ -5606,7 +5606,7 @@
       <c r="M111" s="82"/>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B112" s="2" t="s">
+      <c r="B112" s="84" t="s">
         <v>171</v>
       </c>
       <c r="C112" s="82"/>
@@ -6860,11 +6860,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{9343737D-CC45-4A28-BF37-B84E488E4D38}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{724A01B3-57E2-473F-9419-8A19AEEE28F2}"/>
-    <hyperlink ref="B112" r:id="rId3" xr:uid="{D31BD827-7B9C-49F1-AC83-7D08688363C3}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{1105A3E9-9F3F-4250-935B-CA4B4626CB6F}"/>
-    <hyperlink ref="B111" r:id="rId5" xr:uid="{B75858C3-6869-475B-A004-B423B72E60CF}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{1C56DA91-4FFB-4617-9B3F-833588D0DA43}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{59921804-D5CF-4E23-B7B5-34B73D6DA59A}"/>
+    <hyperlink ref="B112" r:id="rId3" xr:uid="{7BAF344F-3BBA-4916-B699-47F6FF58F423}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{2EA98A31-CD1E-45C9-891C-25CCCEF81DC9}"/>
+    <hyperlink ref="B111" r:id="rId5" xr:uid="{E1AE07D5-8C8F-4B48-9138-CCE7C1DC5C0F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="83" orientation="portrait" r:id="rId6"/>

--- a/DDAf_2024_Tableau_annexe_Tab21.xlsx
+++ b/DDAf_2024_Tableau_annexe_Tab21.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{498BEEEA-C916-4A5B-8665-47FFD27430D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6689EAE-8EC3-414F-B06B-963B79A143B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{33A389CB-5DB2-4166-81B9-E429A1E9BF5B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{85EE5309-2262-4963-9787-83F13822F600}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab21" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="177">
   <si>
     <t>Tableau 21 : Investissement et stock de capital</t>
   </si>
@@ -464,13 +464,19 @@
     <t>UMA</t>
   </si>
   <si>
+    <t>PALOP</t>
+  </si>
+  <si>
     <t>ASEAN</t>
   </si>
   <si>
     <t>MERCOSUR</t>
   </si>
   <si>
-    <t>EU28</t>
+    <t>EU27</t>
+  </si>
+  <si>
+    <t>OCDE</t>
   </si>
   <si>
     <t xml:space="preserve">Afrique, pays riches en ressources </t>
@@ -1473,7 +1479,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B8B8755-DB3F-4B23-B6F2-2B64670F5B9C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E39FD1D7-87C1-4246-A7B5-2D39CB3F1816}">
   <dimension ref="A1:M207"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
@@ -4431,7 +4437,7 @@
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="61"/>
       <c r="B74" s="57" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C74" s="66">
         <v>6.8270139536905097</v>
@@ -4470,7 +4476,7 @@
     <row r="75" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="61"/>
       <c r="B75" s="57" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C75" s="58">
         <v>3.4851418307926001</v>
@@ -4509,7 +4515,7 @@
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="61"/>
       <c r="B76" s="73" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C76" s="74">
         <v>4.4554432331737504</v>
@@ -4548,7 +4554,7 @@
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="61"/>
       <c r="B77" s="57" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C77" s="66">
         <v>3.08292749497814</v>
@@ -4587,7 +4593,7 @@
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="61"/>
       <c r="B78" s="57" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C78" s="66">
         <v>3.0156025661680501</v>
@@ -4626,7 +4632,7 @@
     <row r="79" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="61"/>
       <c r="B79" s="69" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C79" s="70">
         <v>3.4263949493724701</v>
@@ -4665,7 +4671,7 @@
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="61"/>
       <c r="B80" s="57" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C80" s="66">
         <v>6.7464162527548703</v>
@@ -4704,7 +4710,7 @@
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="61"/>
       <c r="B81" s="57" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C81" s="66">
         <v>5.1635666199755201</v>
@@ -4743,7 +4749,7 @@
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="61"/>
       <c r="B82" s="57" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C82" s="66">
         <v>3.6074372074919698</v>
@@ -4782,7 +4788,7 @@
     <row r="83" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="61"/>
       <c r="B83" s="57" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C83" s="58">
         <v>6.4100351187448297</v>
@@ -4821,7 +4827,7 @@
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="61"/>
       <c r="B84" s="73" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C84" s="74">
         <v>5.5563925645611798</v>
@@ -4860,7 +4866,7 @@
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="61"/>
       <c r="B85" s="77" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C85" s="66">
         <v>5.9743401578647797</v>
@@ -4899,7 +4905,7 @@
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="61"/>
       <c r="B86" s="57" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C86" s="66">
         <v>4.0912814096470296</v>
@@ -4938,7 +4944,7 @@
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="61"/>
       <c r="B87" s="57" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C87" s="66">
         <v>4.4857381312776301</v>
@@ -4977,7 +4983,7 @@
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="61"/>
       <c r="B88" s="57" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C88" s="66">
         <v>2.6493262915689701</v>
@@ -5016,7 +5022,7 @@
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="61"/>
       <c r="B89" s="57" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C89" s="66">
         <v>10.238883878040401</v>
@@ -5055,7 +5061,7 @@
     <row r="90" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="61"/>
       <c r="B90" s="69" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C90" s="70">
         <v>3.86451959733987</v>
@@ -5094,7 +5100,7 @@
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="61"/>
       <c r="B91" s="57" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C91" s="66">
         <v>5.1388953891259002</v>
@@ -5133,7 +5139,7 @@
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="61"/>
       <c r="B92" s="57" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C92" s="66">
         <v>5.8895408698378304</v>
@@ -5172,7 +5178,7 @@
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="61"/>
       <c r="B93" s="57" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C93" s="66">
         <v>3.71121444746547</v>
@@ -5211,7 +5217,7 @@
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="61"/>
       <c r="B94" s="57" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C94" s="66">
         <v>4.0481048057523497</v>
@@ -5250,7 +5256,7 @@
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="61"/>
       <c r="B95" s="57" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C95" s="66">
         <v>6.5234756045389597</v>
@@ -5289,7 +5295,7 @@
     <row r="96" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="61"/>
       <c r="B96" s="57" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C96" s="58">
         <v>4.1810168696738703</v>
@@ -5328,7 +5334,7 @@
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="61"/>
       <c r="B97" s="73" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C97" s="74">
         <v>3.71052076665329</v>
@@ -5367,7 +5373,7 @@
     <row r="98" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="61"/>
       <c r="B98" s="69" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C98" s="70">
         <v>3.61483060350331</v>
@@ -5420,7 +5426,7 @@
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C100" s="81"/>
       <c r="D100" s="81"/>
@@ -5436,7 +5442,7 @@
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C101" s="81"/>
       <c r="D101" s="81"/>
@@ -5452,7 +5458,7 @@
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C102" s="81"/>
       <c r="D102" s="81"/>
@@ -5468,7 +5474,7 @@
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C103" s="81"/>
       <c r="D103" s="81"/>
@@ -5484,7 +5490,7 @@
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C104" s="81"/>
       <c r="D104" s="81"/>
@@ -5500,7 +5506,7 @@
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C105" s="81"/>
       <c r="D105" s="81"/>
@@ -5529,7 +5535,7 @@
     </row>
     <row r="107" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B107" s="83" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C107" s="82"/>
       <c r="D107" s="82"/>
@@ -5559,7 +5565,7 @@
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B109" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C109" s="82"/>
       <c r="D109" s="82"/>
@@ -5575,7 +5581,7 @@
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B110" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C110" s="82"/>
       <c r="D110" s="82"/>
@@ -5591,7 +5597,7 @@
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B111" s="84" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C111" s="82"/>
       <c r="D111" s="82"/>
@@ -5607,7 +5613,7 @@
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B112" s="84" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C112" s="82"/>
       <c r="D112" s="82"/>
@@ -6860,11 +6866,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{1C56DA91-4FFB-4617-9B3F-833588D0DA43}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{59921804-D5CF-4E23-B7B5-34B73D6DA59A}"/>
-    <hyperlink ref="B112" r:id="rId3" xr:uid="{7BAF344F-3BBA-4916-B699-47F6FF58F423}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{2EA98A31-CD1E-45C9-891C-25CCCEF81DC9}"/>
-    <hyperlink ref="B111" r:id="rId5" xr:uid="{E1AE07D5-8C8F-4B48-9138-CCE7C1DC5C0F}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{F9C455C1-F50C-4EB8-957A-0988CFFF9DD5}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{BE2BAE17-994D-489B-BDA2-80AA8D1D5D1D}"/>
+    <hyperlink ref="B112" r:id="rId3" xr:uid="{F91CF410-B6DE-4944-8D3F-4983593243D0}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{5B2BDF1E-8267-4E92-B9ED-B4123012B1E9}"/>
+    <hyperlink ref="B111" r:id="rId5" xr:uid="{E67E7DD8-479C-4D37-AFCE-9ACCB77071C1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="83" orientation="portrait" r:id="rId6"/>
